--- a/results/figs/model_simulation/M3/fig_3a_base_hline.xlsx
+++ b/results/figs/model_simulation/M3/fig_3a_base_hline.xlsx
@@ -404,7 +404,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>12.0918</v>
+        <v>11.9434</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -429,10 +429,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>51.7539</v>
+        <v>53.4648</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -460,7 +460,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>18.5029</v>
+        <v>18.668</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>49.501</v>
+        <v>51.9707</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
